--- a/src/Report.NPOI.Tests/Template.xlsx
+++ b/src/Report.NPOI.Tests/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VSTS-Git\Report.NPOI\src\Report.NPOI.Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61F741B-D327-420D-851E-847B3F82D5C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948D3B86-B49A-4A2B-A825-E1AB4B2298DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="4140" windowWidth="21600" windowHeight="11505" xr2:uid="{34C3F2A3-2380-4F6A-ACC7-F87284AFBC32}"/>
+    <workbookView xWindow="5550" yWindow="4125" windowWidth="21600" windowHeight="11505" xr2:uid="{34C3F2A3-2380-4F6A-ACC7-F87284AFBC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>报价单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,8 +218,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,9 +235,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C2BCA0-7975-4F16-8144-5B8B8400F5AC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,7 +609,7 @@
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -633,11 +626,6 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
